--- a/testdata/out_hostinfos.xlsx
+++ b/testdata/out_hostinfos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<ma:sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ma="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xml="http://www.w3.org/XML/1998/namespace" count="20" uniqueCount="20">
+<ma:sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ma="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xml="http://www.w3.org/XML/1998/namespace" count="21" uniqueCount="21">
   <ma:si>
     <ma:t>主机名称</ma:t>
   </ma:si>
@@ -55,37 +55,40 @@
     <ma:t>192.168.1.3</ma:t>
   </ma:si>
   <ma:si>
+    <ma:t>3v4p5b47</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>test</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>小勇</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>mb02</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>tb02</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>192.168.1.6</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>b7tysaip</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>mb03</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>tb03</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>192.168.1.9</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>5iue3jqj</ma:t>
+  </ma:si>
+  <ma:si>
     <ma:t/>
-  </ma:si>
-  <ma:si>
-    <ma:t>3v4p5b47</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>test</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>mb02</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>tb02</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>192.168.1.6</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>b7tysaip</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>mb03</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>tb03</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>192.168.1.9</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>5iue3jqj</ma:t>
   </ma:si>
 </ma:sst>
 </file>
@@ -528,13 +531,13 @@
         <ma:v>8</ma:v>
       </ma:c>
       <ma:c r="D2" s="1" t="s">
+        <ma:v>11</ma:v>
+      </ma:c>
+      <ma:c r="E2" s="1" t="s">
         <ma:v>9</ma:v>
       </ma:c>
-      <ma:c r="E2" s="1" t="s">
+      <ma:c r="F2" s="1" t="s">
         <ma:v>10</ma:v>
-      </ma:c>
-      <ma:c r="F2" s="1" t="s">
-        <ma:v>11</ma:v>
       </ma:c>
     </ma:row>
     <ma:row r="3">
@@ -548,13 +551,13 @@
         <ma:v>14</ma:v>
       </ma:c>
       <ma:c r="D3" s="1" t="s">
-        <ma:v>9</ma:v>
+        <ma:v>11</ma:v>
       </ma:c>
       <ma:c r="E3" s="1" t="s">
         <ma:v>15</ma:v>
       </ma:c>
       <ma:c r="F3" s="1" t="s">
-        <ma:v>11</ma:v>
+        <ma:v>10</ma:v>
       </ma:c>
     </ma:row>
     <ma:row r="4">
@@ -568,13 +571,13 @@
         <ma:v>18</ma:v>
       </ma:c>
       <ma:c r="D4" s="1" t="s">
-        <ma:v>9</ma:v>
+        <ma:v>11</ma:v>
       </ma:c>
       <ma:c r="E4" s="1" t="s">
         <ma:v>19</ma:v>
       </ma:c>
       <ma:c r="F4" s="1" t="s">
-        <ma:v>9</ma:v>
+        <ma:v>20</ma:v>
       </ma:c>
     </ma:row>
   </ma:sheetData>

--- a/testdata/out_hostinfos.xlsx
+++ b/testdata/out_hostinfos.xlsx
@@ -7,7 +7,8 @@
     <ma:workbookView xWindow="5080" yWindow="1860" windowWidth="28240" windowHeight="17440"/>
   </ma:bookViews>
   <ma:sheets>
-    <ma:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <ma:sheet name="FirstSheet" sheetId="1" r:id="rId1"/>
+    <ma:sheet name="SecondSheet" sheetId="2" r:id="rId5"/>
   </ma:sheets>
   <ma:calcPr calcId="181029"/>
   <ma:extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<ma:sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ma="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xml="http://www.w3.org/XML/1998/namespace" count="21" uniqueCount="21">
+<ma:sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ma="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xml="http://www.w3.org/XML/1998/namespace" count="28" uniqueCount="28">
   <ma:si>
     <ma:t>主机名称</ma:t>
   </ma:si>
@@ -89,6 +90,27 @@
   </ma:si>
   <ma:si>
     <ma:t/>
+  </ma:si>
+  <ma:si>
+    <ma:t>主机名称</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>主机hostname</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>主机IP</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>主机负责人(rtx)</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>实例ID</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>服务器可用区</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>mb01第2页啦</ma:t>
   </ma:si>
 </ma:sst>
 </file>
@@ -584,4 +606,92 @@
   <ma:phoneticPr fontId="1" type="noConversion"/>
   <ma:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </ma:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<ma:worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ma="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xml="http://www.w3.org/XML/1998/namespace">
+  <ma:dimension ref="A1:F4"/>
+  <ma:sheetData>
+    <ma:row r="1">
+      <ma:c r="A1" s="2" t="s">
+        <ma:v>21</ma:v>
+      </ma:c>
+      <ma:c r="B1" s="2" t="s">
+        <ma:v>22</ma:v>
+      </ma:c>
+      <ma:c r="C1" s="2" t="s">
+        <ma:v>23</ma:v>
+      </ma:c>
+      <ma:c r="D1" s="2" t="s">
+        <ma:v>24</ma:v>
+      </ma:c>
+      <ma:c r="E1" s="2" t="s">
+        <ma:v>25</ma:v>
+      </ma:c>
+      <ma:c r="F1" s="2" t="s">
+        <ma:v>26</ma:v>
+      </ma:c>
+    </ma:row>
+    <ma:row r="2">
+      <ma:c r="A2" s="1" t="s">
+        <ma:v>27</ma:v>
+      </ma:c>
+      <ma:c r="B2" s="1" t="s">
+        <ma:v>7</ma:v>
+      </ma:c>
+      <ma:c r="C2" s="1" t="s">
+        <ma:v>8</ma:v>
+      </ma:c>
+      <ma:c r="D2" s="1" t="s">
+        <ma:v>11</ma:v>
+      </ma:c>
+      <ma:c r="E2" s="1" t="s">
+        <ma:v>9</ma:v>
+      </ma:c>
+      <ma:c r="F2" s="1" t="s">
+        <ma:v>10</ma:v>
+      </ma:c>
+    </ma:row>
+    <ma:row r="3">
+      <ma:c r="A3" s="1" t="s">
+        <ma:v>12</ma:v>
+      </ma:c>
+      <ma:c r="B3" s="1" t="s">
+        <ma:v>13</ma:v>
+      </ma:c>
+      <ma:c r="C3" s="1" t="s">
+        <ma:v>14</ma:v>
+      </ma:c>
+      <ma:c r="D3" s="1" t="s">
+        <ma:v>11</ma:v>
+      </ma:c>
+      <ma:c r="E3" s="1" t="s">
+        <ma:v>15</ma:v>
+      </ma:c>
+      <ma:c r="F3" s="1" t="s">
+        <ma:v>10</ma:v>
+      </ma:c>
+    </ma:row>
+    <ma:row r="4">
+      <ma:c r="A4" s="1" t="s">
+        <ma:v>16</ma:v>
+      </ma:c>
+      <ma:c r="B4" s="1" t="s">
+        <ma:v>17</ma:v>
+      </ma:c>
+      <ma:c r="C4" s="1" t="s">
+        <ma:v>18</ma:v>
+      </ma:c>
+      <ma:c r="D4" s="1" t="s">
+        <ma:v>11</ma:v>
+      </ma:c>
+      <ma:c r="E4" s="1" t="s">
+        <ma:v>19</ma:v>
+      </ma:c>
+      <ma:c r="F4" s="1" t="s">
+        <ma:v>20</ma:v>
+      </ma:c>
+    </ma:row>
+  </ma:sheetData>
+</ma:worksheet>
 </file>
--- a/testdata/out_hostinfos.xlsx
+++ b/testdata/out_hostinfos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <ma:workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ma="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xml="http://www.w3.org/XML/1998/namespace">
-  <ma:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <ma:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <ma:workbookPr defaultThemeVersion="166925"/>
   <ma:bookViews>
     <ma:workbookView xWindow="5080" yWindow="1860" windowWidth="28240" windowHeight="17440"/>
@@ -15,12 +15,6 @@
     <ma:ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <m:workbookPr xmlns:m="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" chartTrackingRefBase="1"/>
     </ma:ext>
-    <ma:ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <c:calcFeatures xmlns:c="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
-        <c:feature name="microsoft.com:RD"/>
-        <c:feature name="microsoft.com:FV"/>
-      </c:calcFeatures>
-    </ma:ext>
   </ma:extLst>
 </ma:workbook>
 </file>
@@ -89,7 +83,7 @@
     <ma:t>5iue3jqj</ma:t>
   </ma:si>
   <ma:si>
-    <ma:t/>
+    <ma:t>杭州A</ma:t>
   </ma:si>
   <ma:si>
     <ma:t>主机名称</ma:t>
@@ -507,98 +501,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <ma:worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ma="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xml="http://www.w3.org/XML/1998/namespace">
-  <ma:dimension ref="A1:F4"/>
+  <ma:dimension ref="A1:G4"/>
   <ma:sheetViews>
     <ma:sheetView tabSelected="1" workbookViewId="0">
-      <ma:selection activeCell="D35" sqref="D35"/>
+      <ma:selection activeCell="C17" sqref="C17"/>
     </ma:sheetView>
   </ma:sheetViews>
   <ma:sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <ma:cols>
-    <ma:col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <ma:col min="2" max="2" width="22.83203125" customWidth="1"/>
-    <ma:col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <ma:col min="4" max="5" width="28.83203125" customWidth="1"/>
-    <ma:col min="6" max="6" width="22" customWidth="1"/>
+    <ma:col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <ma:col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <ma:col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <ma:col min="5" max="6" width="28.83203125" customWidth="1"/>
+    <ma:col min="7" max="7" width="22" customWidth="1"/>
   </ma:cols>
   <ma:sheetData>
-    <ma:row r="1" spans="1:6" ht="18">
-      <ma:c r="A1" s="2" t="s">
+    <ma:row r="1" spans="2:7" ht="18">
+      <ma:c r="A1"/>
+      <ma:c r="B1" s="2" t="s">
         <ma:v>0</ma:v>
       </ma:c>
-      <ma:c r="B1" s="2" t="s">
+      <ma:c r="C1" s="2" t="s">
         <ma:v>1</ma:v>
       </ma:c>
-      <ma:c r="C1" s="2" t="s">
+      <ma:c r="D1" s="2" t="s">
         <ma:v>2</ma:v>
       </ma:c>
-      <ma:c r="D1" s="2" t="s">
+      <ma:c r="E1" s="2" t="s">
         <ma:v>3</ma:v>
       </ma:c>
-      <ma:c r="E1" s="2" t="s">
+      <ma:c r="F1" s="2" t="s">
         <ma:v>5</ma:v>
       </ma:c>
-      <ma:c r="F1" s="2" t="s">
+      <ma:c r="G1" s="2" t="s">
         <ma:v>4</ma:v>
       </ma:c>
     </ma:row>
-    <ma:row r="2" spans="1:6" ht="18">
-      <ma:c r="A2" s="1" t="s">
+    <ma:row r="2" spans="2:7" ht="18">
+      <ma:c r="A2"/>
+      <ma:c r="B2" s="1" t="s">
         <ma:v>6</ma:v>
       </ma:c>
-      <ma:c r="B2" s="1" t="s">
+      <ma:c r="C2" s="1" t="s">
         <ma:v>7</ma:v>
       </ma:c>
-      <ma:c r="C2" s="1" t="s">
+      <ma:c r="D2" s="1" t="s">
         <ma:v>8</ma:v>
       </ma:c>
-      <ma:c r="D2" s="1" t="s">
+      <ma:c r="E2" s="1" t="s">
         <ma:v>11</ma:v>
       </ma:c>
-      <ma:c r="E2" s="1" t="s">
+      <ma:c r="F2" s="1" t="s">
         <ma:v>9</ma:v>
       </ma:c>
-      <ma:c r="F2" s="1" t="s">
+      <ma:c r="G2" s="1" t="s">
         <ma:v>10</ma:v>
       </ma:c>
     </ma:row>
     <ma:row r="3">
-      <ma:c r="A3" s="1" t="s">
+      <ma:c r="A3"/>
+      <ma:c r="B3" s="1" t="s">
         <ma:v>12</ma:v>
       </ma:c>
-      <ma:c r="B3" s="1" t="s">
+      <ma:c r="C3" s="1" t="s">
         <ma:v>13</ma:v>
       </ma:c>
-      <ma:c r="C3" s="1" t="s">
+      <ma:c r="D3" s="1" t="s">
         <ma:v>14</ma:v>
       </ma:c>
-      <ma:c r="D3" s="1" t="s">
+      <ma:c r="E3" s="1" t="s">
         <ma:v>11</ma:v>
       </ma:c>
-      <ma:c r="E3" s="1" t="s">
+      <ma:c r="F3" s="1" t="s">
         <ma:v>15</ma:v>
       </ma:c>
-      <ma:c r="F3" s="1" t="s">
+      <ma:c r="G3" s="1" t="s">
         <ma:v>10</ma:v>
       </ma:c>
     </ma:row>
     <ma:row r="4">
-      <ma:c r="A4" s="1" t="s">
+      <ma:c r="A4"/>
+      <ma:c r="B4" s="1" t="s">
         <ma:v>16</ma:v>
       </ma:c>
-      <ma:c r="B4" s="1" t="s">
+      <ma:c r="C4" s="1" t="s">
         <ma:v>17</ma:v>
       </ma:c>
-      <ma:c r="C4" s="1" t="s">
+      <ma:c r="D4" s="1" t="s">
         <ma:v>18</ma:v>
       </ma:c>
-      <ma:c r="D4" s="1" t="s">
+      <ma:c r="E4" s="1" t="s">
         <ma:v>11</ma:v>
       </ma:c>
-      <ma:c r="E4" s="1" t="s">
+      <ma:c r="F4" s="1" t="s">
         <ma:v>19</ma:v>
       </ma:c>
-      <ma:c r="F4" s="1" t="s">
+      <ma:c r="G4" s="1" t="s">
         <ma:v>20</ma:v>
       </ma:c>
     </ma:row>
@@ -610,85 +608,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <ma:worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ma="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xml="http://www.w3.org/XML/1998/namespace">
-  <ma:dimension ref="A1:F4"/>
+  <ma:dimension ref="A1:G4"/>
   <ma:sheetData>
     <ma:row r="1">
-      <ma:c r="A1" s="2" t="s">
+      <ma:c r="A1"/>
+      <ma:c r="B1" s="2" t="s">
         <ma:v>21</ma:v>
       </ma:c>
-      <ma:c r="B1" s="2" t="s">
+      <ma:c r="C1" s="2" t="s">
         <ma:v>22</ma:v>
       </ma:c>
-      <ma:c r="C1" s="2" t="s">
+      <ma:c r="D1" s="2" t="s">
         <ma:v>23</ma:v>
       </ma:c>
-      <ma:c r="D1" s="2" t="s">
+      <ma:c r="E1" s="2" t="s">
         <ma:v>24</ma:v>
       </ma:c>
-      <ma:c r="E1" s="2" t="s">
+      <ma:c r="F1" s="2" t="s">
         <ma:v>25</ma:v>
       </ma:c>
-      <ma:c r="F1" s="2" t="s">
+      <ma:c r="G1" s="2" t="s">
         <ma:v>26</ma:v>
       </ma:c>
     </ma:row>
     <ma:row r="2">
-      <ma:c r="A2" s="1" t="s">
+      <ma:c r="A2"/>
+      <ma:c r="B2" s="1" t="s">
         <ma:v>27</ma:v>
       </ma:c>
-      <ma:c r="B2" s="1" t="s">
+      <ma:c r="C2" s="1" t="s">
         <ma:v>7</ma:v>
       </ma:c>
-      <ma:c r="C2" s="1" t="s">
+      <ma:c r="D2" s="1" t="s">
         <ma:v>8</ma:v>
       </ma:c>
-      <ma:c r="D2" s="1" t="s">
+      <ma:c r="E2" s="1" t="s">
         <ma:v>11</ma:v>
       </ma:c>
-      <ma:c r="E2" s="1" t="s">
+      <ma:c r="F2" s="1" t="s">
         <ma:v>9</ma:v>
       </ma:c>
-      <ma:c r="F2" s="1" t="s">
+      <ma:c r="G2" s="1" t="s">
         <ma:v>10</ma:v>
       </ma:c>
     </ma:row>
     <ma:row r="3">
-      <ma:c r="A3" s="1" t="s">
+      <ma:c r="A3"/>
+      <ma:c r="B3" s="1" t="s">
         <ma:v>12</ma:v>
       </ma:c>
-      <ma:c r="B3" s="1" t="s">
+      <ma:c r="C3" s="1" t="s">
         <ma:v>13</ma:v>
       </ma:c>
-      <ma:c r="C3" s="1" t="s">
+      <ma:c r="D3" s="1" t="s">
         <ma:v>14</ma:v>
       </ma:c>
-      <ma:c r="D3" s="1" t="s">
+      <ma:c r="E3" s="1" t="s">
         <ma:v>11</ma:v>
       </ma:c>
-      <ma:c r="E3" s="1" t="s">
+      <ma:c r="F3" s="1" t="s">
         <ma:v>15</ma:v>
       </ma:c>
-      <ma:c r="F3" s="1" t="s">
+      <ma:c r="G3" s="1" t="s">
         <ma:v>10</ma:v>
       </ma:c>
     </ma:row>
     <ma:row r="4">
-      <ma:c r="A4" s="1" t="s">
+      <ma:c r="A4"/>
+      <ma:c r="B4" s="1" t="s">
         <ma:v>16</ma:v>
       </ma:c>
-      <ma:c r="B4" s="1" t="s">
+      <ma:c r="C4" s="1" t="s">
         <ma:v>17</ma:v>
       </ma:c>
-      <ma:c r="C4" s="1" t="s">
+      <ma:c r="D4" s="1" t="s">
         <ma:v>18</ma:v>
       </ma:c>
-      <ma:c r="D4" s="1" t="s">
+      <ma:c r="E4" s="1" t="s">
         <ma:v>11</ma:v>
       </ma:c>
-      <ma:c r="E4" s="1" t="s">
+      <ma:c r="F4" s="1" t="s">
         <ma:v>19</ma:v>
       </ma:c>
-      <ma:c r="F4" s="1" t="s">
+      <ma:c r="G4" s="1" t="s">
         <ma:v>20</ma:v>
       </ma:c>
     </ma:row>
